--- a/src/main/webapp/cfg/excel/empservtemp.xlsx
+++ b/src/main/webapp/cfg/excel/empservtemp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bouga\Documents\GitHub\QData\src\main\webapp\cfg\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAE90714-D9C8-4940-B57C-E639698A1D7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A98B7E4F-2061-444D-B96C-FEE2F2973B47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,12 +46,6 @@
   <si>
     <t xml:space="preserve">
 Traités&lt;1mn/Nb.Tickets%</t>
-  </si>
-  <si>
-    <t>Moyenne attente(mm:ss)</t>
-  </si>
-  <si>
-    <t>Moyenne traitement (mm:ss)</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -162,6 +156,12 @@
   </si>
   <si>
     <t>&gt; Cible traitement</t>
+  </si>
+  <si>
+    <t>Moyenne attente(seconde)</t>
+  </si>
+  <si>
+    <t>Moyenne traitement (seconde)</t>
   </si>
 </sst>
 </file>
@@ -334,57 +334,6 @@
   </cellStyles>
   <dxfs count="32">
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -822,6 +771,57 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -909,22 +909,22 @@
   <autoFilter ref="B4:R300" xr:uid="{0E552089-0AF7-41E8-B75F-91D4B33CADF1}"/>
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{CC7BA26C-94D4-4165-8BC8-4DBE6EC2C92D}" name="Site" dataDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{EA1BB71B-2D7F-4C72-8261-FCC10841E382}" name="Employé" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{EEEB289F-C7B7-40FF-8C1D-89D47A4D02BB}" name="Service" dataDxfId="0"/>
-    <tableColumn id="18" xr3:uid="{4AA2911E-6C5E-4B4A-9FBF-FDF80275CB51}" name="Nb Tickets" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{105A0C7A-B09A-4984-B23E-B9496C7DDE82}" name="Tickets Traités" dataDxfId="27"/>
-    <tableColumn id="5" xr3:uid="{EA0A8094-EA0A-4EA7-8449-16E2B054BDC8}" name="Tickets Absents" dataDxfId="26"/>
-    <tableColumn id="6" xr3:uid="{DEC0D748-EB76-4B02-8EA1-164B94B40CE4}" name="      Traités      &lt; 1mn" dataDxfId="25"/>
-    <tableColumn id="7" xr3:uid="{93222EDC-3107-4B15-8F63-AFCB881D7E0A}" name="Sans Affectation" dataDxfId="24"/>
-    <tableColumn id="8" xr3:uid="{B3163B25-B313-442B-AEE1-7EEFC3839E9D}" name=" _x000a_Nb.Absents /Nb.Tickets%" dataDxfId="23"/>
-    <tableColumn id="9" xr3:uid="{1F35EC28-FB1F-421C-A49E-347EE3F892A4}" name="_x000a_Traités&lt;1mn/Nb.Tickets%" dataDxfId="22"/>
-    <tableColumn id="10" xr3:uid="{A32A29BA-2934-4A11-BE2B-331E8FE758DA}" name="Sans affect. /Nb.Tickets%" dataDxfId="21"/>
-    <tableColumn id="12" xr3:uid="{5683003F-43F0-4FDC-B803-D65604EB7709}" name="Moyenne attente(mm:ss)" dataDxfId="20"/>
-    <tableColumn id="13" xr3:uid="{7E60499E-6A47-4691-AFE9-DFB21F64B82F}" name="&gt; Cible attente" dataDxfId="19"/>
-    <tableColumn id="14" xr3:uid="{40D7B063-FBFC-448B-BEDD-CEDCB0484AD4}" name="(%) Cible attente" dataDxfId="18"/>
-    <tableColumn id="15" xr3:uid="{F67D2F61-553F-46B2-8ABF-6A0ADFBD062E}" name="Moyenne traitement (mm:ss)" dataDxfId="17"/>
-    <tableColumn id="16" xr3:uid="{FD51F86B-68EF-4164-8D17-D1BBE723FFD5}" name="&gt; Cible traitement" dataDxfId="16"/>
-    <tableColumn id="17" xr3:uid="{1949E030-4789-4CE1-B1AF-2B9EF202A7E0}" name="_x000a_(%) Cible traitement" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{EA1BB71B-2D7F-4C72-8261-FCC10841E382}" name="Employé" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{EEEB289F-C7B7-40FF-8C1D-89D47A4D02BB}" name="Service" dataDxfId="26"/>
+    <tableColumn id="18" xr3:uid="{4AA2911E-6C5E-4B4A-9FBF-FDF80275CB51}" name="Nb Tickets" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{105A0C7A-B09A-4984-B23E-B9496C7DDE82}" name="Tickets Traités" dataDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{EA0A8094-EA0A-4EA7-8449-16E2B054BDC8}" name="Tickets Absents" dataDxfId="23"/>
+    <tableColumn id="6" xr3:uid="{DEC0D748-EB76-4B02-8EA1-164B94B40CE4}" name="      Traités      &lt; 1mn" dataDxfId="22"/>
+    <tableColumn id="7" xr3:uid="{93222EDC-3107-4B15-8F63-AFCB881D7E0A}" name="Sans Affectation" dataDxfId="21"/>
+    <tableColumn id="8" xr3:uid="{B3163B25-B313-442B-AEE1-7EEFC3839E9D}" name=" _x000a_Nb.Absents /Nb.Tickets%" dataDxfId="20"/>
+    <tableColumn id="9" xr3:uid="{1F35EC28-FB1F-421C-A49E-347EE3F892A4}" name="_x000a_Traités&lt;1mn/Nb.Tickets%" dataDxfId="19"/>
+    <tableColumn id="10" xr3:uid="{A32A29BA-2934-4A11-BE2B-331E8FE758DA}" name="Sans affect. /Nb.Tickets%" dataDxfId="18"/>
+    <tableColumn id="12" xr3:uid="{5683003F-43F0-4FDC-B803-D65604EB7709}" name="Moyenne attente(seconde)" dataDxfId="17"/>
+    <tableColumn id="13" xr3:uid="{7E60499E-6A47-4691-AFE9-DFB21F64B82F}" name="&gt; Cible attente" dataDxfId="16"/>
+    <tableColumn id="14" xr3:uid="{40D7B063-FBFC-448B-BEDD-CEDCB0484AD4}" name="(%) Cible attente" dataDxfId="15"/>
+    <tableColumn id="15" xr3:uid="{F67D2F61-553F-46B2-8ABF-6A0ADFBD062E}" name="Moyenne traitement (seconde)" dataDxfId="14"/>
+    <tableColumn id="16" xr3:uid="{FD51F86B-68EF-4164-8D17-D1BBE723FFD5}" name="&gt; Cible traitement" dataDxfId="13"/>
+    <tableColumn id="17" xr3:uid="{1949E030-4789-4CE1-B1AF-2B9EF202A7E0}" name="_x000a_(%) Cible traitement" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1144,10 +1144,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:R300"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E19" sqref="E19"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5:D300"/>
+      <selection pane="bottomLeft" activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1171,7 +1171,7 @@
   <sheetData>
     <row r="1" spans="2:18" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
@@ -1205,51 +1205,51 @@
         <v>2</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>33</v>
-      </c>
       <c r="J4" s="8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K4" s="8" t="s">
         <v>3</v>
       </c>
       <c r="L4" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="O4" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="P4" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="R4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="O4" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="P4" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q4" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="R4" s="8" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="5" spans="2:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="4"/>
@@ -1270,7 +1270,7 @@
     </row>
     <row r="6" spans="2:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="4"/>
@@ -1291,60 +1291,60 @@
     </row>
     <row r="7" spans="2:18" ht="15" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>29</v>
+      <c r="F7" s="3" t="s">
+        <v>14</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="H7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="I7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="J7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="K7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="L7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="M7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="N7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="O7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="P7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O7" s="3" t="s">
+      <c r="Q7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="R7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="Q7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="R7" s="3" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="8" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="4"/>
@@ -1365,7 +1365,7 @@
     </row>
     <row r="9" spans="2:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="4"/>
@@ -6918,52 +6918,52 @@
     <mergeCell ref="B1:R1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:B1 A2:R4 C5:R6 D7 C8:D8 C9:R9 A10:R1048576 A5:A9">
-    <cfRule type="expression" dxfId="14" priority="12">
+    <cfRule type="expression" dxfId="11" priority="12">
       <formula>$C1="Sous-Totale"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1 B2:R4 C5:R6 D7 C8:D8 C9:R9 B10:R1048576">
-    <cfRule type="expression" dxfId="13" priority="11">
+    <cfRule type="expression" dxfId="10" priority="11">
       <formula>$C1="Totale"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:B6">
-    <cfRule type="expression" dxfId="12" priority="9">
+    <cfRule type="expression" dxfId="9" priority="9">
       <formula>$C5="Totale"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="10">
+    <cfRule type="expression" dxfId="8" priority="10">
       <formula>$C5="Sous-Totale"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:B9">
-    <cfRule type="expression" dxfId="10" priority="7">
+    <cfRule type="expression" dxfId="7" priority="7">
       <formula>$C8="Totale"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="8">
+    <cfRule type="expression" dxfId="6" priority="8">
       <formula>$C8="Sous-Totale"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:C7">
-    <cfRule type="expression" dxfId="8" priority="5">
+    <cfRule type="expression" dxfId="5" priority="5">
       <formula>$C7="Totale"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="6">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>$C7="Sous-Totale"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7:J7 L7:P7 R7">
-    <cfRule type="expression" dxfId="6" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>$B$5:$B$300="Totale"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>$C$5:$C$300="Sous-Totale"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7:R7">
-    <cfRule type="expression" dxfId="4" priority="14">
+    <cfRule type="expression" dxfId="1" priority="14">
       <formula>$C8="Sous-Totale"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="17">
+    <cfRule type="expression" dxfId="0" priority="17">
       <formula>$C8="Totale"</formula>
     </cfRule>
   </conditionalFormatting>
